--- a/medicine/Mort/Cimetière_de_Sainte-Walburge/Cimetière_de_Sainte-Walburge.xlsx
+++ b/medicine/Mort/Cimetière_de_Sainte-Walburge/Cimetière_de_Sainte-Walburge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sainte-Walburge</t>
+          <t>Cimetière_de_Sainte-Walburge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Sainte-Walburge est un cimetière de 20 hectares créé en 1874 sur les hauteurs de Liège. Second en importance après le cimetière de Robermont, il abrite entre autres les dépouilles de Berthe Bovy et Georges Truffaut.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sainte-Walburge</t>
+          <t>Cimetière_de_Sainte-Walburge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le cimetière paroissial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois, le cimetière ceinturait l'église Sainte-Walburge mais la loi républicaine française de 1801 ayant exigé de ne plus inhumer autour des églises, suivie du décret de Napoléon du 12 juin 1804, la Municipalité définit 3 nouveaux cimetières : le cimetière de Robermont, les Bayards supprimé en 1816 et le cimetière de Hocheporte, rue Naimette, supprimé en 1821.
 En 1855, alors que la Ville de Liège envisage de fermer définitivement le cimetière de Sainte-Walburge, la famille Orban y demande une concession à perpétuité en échange de la cession de terrains avoisinants. Frappé d'interdit en 1866, un débat relatif à l'implantation d'un nouveau cimetière va durer des mois.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sainte-Walburge</t>
+          <t>Cimetière_de_Sainte-Walburge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Le cimetière actuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après de nombreuses études et débats sur les risques de contaminations des nappes aquifères, on inaugure enfin le nouveau cimetière Sainte-Walburge le vendredi 20 mars 1874 situé boulevard Fosse Crahay[1] qui deviendra une large chaussée pavée, baptisée par les toujours facétieux Liégeois, le boulevard des étendus.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après de nombreuses études et débats sur les risques de contaminations des nappes aquifères, on inaugure enfin le nouveau cimetière Sainte-Walburge le vendredi 20 mars 1874 situé boulevard Fosse Crahay qui deviendra une large chaussée pavée, baptisée par les toujours facétieux Liégeois, le boulevard des étendus.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sainte-Walburge</t>
+          <t>Cimetière_de_Sainte-Walburge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Quelques célébrités qui y sont inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Joseph Bologne
 Berthe Bovy
